--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Dodoma_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Dodoma_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="460" windowWidth="16340" windowHeight="14260" tabRatio="500" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="9260" yWindow="460" windowWidth="16340" windowHeight="14260" tabRatio="500" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1315,7 +1310,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1391,6 +1386,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -2872,12 +2868,12 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2893,7 +2889,7 @@
         <v>440455.11148287269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2901,7 +2897,7 @@
         <v>106483.24147713934</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2909,7 +2905,7 @@
         <v>125201.55497579562</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2917,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2925,7 +2921,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2937,6 +2933,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2948,12 +2949,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3165,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3559,6 +3560,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3570,13 +3576,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3612,7 +3618,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3631,7 +3637,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3650,7 +3656,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3669,7 +3675,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3688,7 +3694,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3707,7 +3713,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3726,7 +3732,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3745,113 +3751,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3863,9 +3874,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3879,7 +3890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3895,6 +3906,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3904,12 +3920,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3929,7 +3945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3949,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3969,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3989,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4011,6 +4027,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4022,9 +4043,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4044,7 +4065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4066,6 +4087,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4077,9 +4103,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4093,7 +4119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4109,6 +4135,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4120,12 +4151,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4145,7 +4176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4165,7 +4196,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4173,7 +4204,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4181,7 +4212,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4192,6 +4223,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4201,12 +4237,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4226,7 +4262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4246,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4266,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4286,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4308,6 +4344,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4317,13 +4358,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4343,7 +4384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4365,6 +4406,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4374,12 +4420,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4396,7 +4442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4413,14 +4459,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4429,6 +4475,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4440,13 +4491,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4454,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4462,7 +4513,7 @@
         <v>108540.932</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4470,7 +4521,7 @@
         <v>110598.58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4478,7 +4529,7 @@
         <v>113170.64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4486,7 +4537,7 @@
         <v>115228.288</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4494,7 +4545,7 @@
         <v>117285.936</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4502,7 +4553,7 @@
         <v>119857.996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4510,7 +4561,7 @@
         <v>122430.056</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4518,7 +4569,7 @@
         <v>124487.704</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4526,7 +4577,7 @@
         <v>127574.17599999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4534,7 +4585,7 @@
         <v>130146.236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4542,7 +4593,7 @@
         <v>132718.296</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4550,7 +4601,7 @@
         <v>135290.356</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4558,7 +4609,7 @@
         <v>138376.82800000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4568,6 +4619,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4575,11 +4631,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4587,7 +4643,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4601,7 +4657,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4618,7 +4674,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4635,7 +4691,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4649,7 +4705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4666,7 +4722,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4683,12 +4739,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="40">
-        <v>0</v>
+      <c r="B7" s="41">
+        <v>0.84842345879065295</v>
       </c>
       <c r="C7" s="39">
         <v>0.95</v>
@@ -4700,72 +4756,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4773,6 +4829,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4780,11 +4841,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4794,7 +4855,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4819,7 +4880,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4842,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4867,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4891,7 +4952,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4914,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4937,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -4960,65 +5021,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5026,6 +5087,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5037,12 +5103,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5062,7 +5128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5082,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5101,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5121,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5138,14 +5204,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5155,6 +5221,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5166,12 +5237,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5194,7 +5265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5217,7 +5288,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5237,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5260,7 +5331,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5284,6 +5355,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5295,12 +5371,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5323,7 +5399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5346,7 +5422,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5366,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5392,7 +5468,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5416,6 +5492,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5427,12 +5508,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5455,7 +5536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5478,7 +5559,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5498,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5524,7 +5605,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5548,6 +5629,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5559,9 +5645,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5572,7 +5658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="32">
         <v>29</v>
       </c>
@@ -5583,7 +5669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5592,6 +5678,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5603,12 +5694,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5628,7 +5719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5648,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5668,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5688,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5708,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5728,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5748,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5768,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5788,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5808,7 +5899,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5828,7 +5919,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5848,7 +5939,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5868,7 +5959,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5888,7 +5979,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5908,7 +5999,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5928,7 +6019,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5948,7 +6039,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5975,6 +6066,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5986,9 +6082,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6011,7 +6107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6039,7 +6135,7 @@
         <v>21.409109206581267</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6064,7 +6160,7 @@
         <v>36.817489630628039</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6084,7 +6180,7 @@
         <v>29.261691761081298</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6104,7 +6200,7 @@
         <v>12.5117094017094</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6127,7 +6223,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6147,7 +6243,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6167,7 +6263,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6187,7 +6283,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6210,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6230,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6250,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6275,6 +6371,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6286,9 +6387,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6299,7 +6400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="34">
         <v>1.9523255813953491E-2</v>
       </c>
@@ -6312,6 +6413,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6323,9 +6429,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6345,7 +6451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6365,7 +6471,7 @@
         <v>1.6781822033898306</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6389,6 +6495,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6398,9 +6509,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6423,7 +6534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6446,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6466,7 +6577,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6486,7 +6597,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6506,7 +6617,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6529,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6549,7 +6660,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6569,7 +6680,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6589,7 +6700,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6612,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6632,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6652,7 +6763,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6672,7 +6783,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6695,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6715,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6735,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6755,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6778,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6798,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6818,7 +6929,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6840,6 +6951,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6849,9 +6965,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6874,7 +6990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6897,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6917,7 +7033,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6937,7 +7053,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6957,7 +7073,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6980,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7000,7 +7116,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7020,7 +7136,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7040,7 +7156,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7063,7 +7179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7083,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7103,7 +7219,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7123,7 +7239,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7146,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7166,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7186,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7206,7 +7322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7229,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7249,7 +7365,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7269,7 +7385,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7291,5 +7407,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>